--- a/Data_preparation/datasets/final_data/CCC_INTELLIGENT.xlsx
+++ b/Data_preparation/datasets/final_data/CCC_INTELLIGENT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,72 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -718,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>74.30999755859375</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>78.51000213623047</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F2">
-        <v>80.26000213623047</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="G2">
-        <v>70.55000305175781</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="H2">
-        <v>201104117</v>
+        <v>651255398</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>1230311000</v>
@@ -762,22 +696,22 @@
         <v>43921</v>
       </c>
       <c r="D3">
-        <v>26.5</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>30.27000045776367</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="G3">
-        <v>21.67000007629395</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="H3">
-        <v>2085418676</v>
+        <v>651255398</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>159208000</v>
@@ -839,22 +773,22 @@
         <v>44022</v>
       </c>
       <c r="D4">
-        <v>52.2033288817686</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>72.28928375244141</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F4">
-        <v>76.42193461658707</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="G4">
-        <v>52.01089689692411</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="H4">
-        <v>5186523104</v>
+        <v>651255398</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4">
         <v>150716000</v>
@@ -922,22 +856,22 @@
         <v>44104</v>
       </c>
       <c r="D5">
-        <v>142.1999969482422</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>135.75</v>
+        <v>11.27000045776367</v>
       </c>
       <c r="F5">
-        <v>158.7359924316406</v>
+        <v>13.59000015258789</v>
       </c>
       <c r="G5">
-        <v>133.8099975585938</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="H5">
-        <v>158300823</v>
+        <v>651255398</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>918750000</v>
@@ -1023,22 +957,22 @@
         <v>44196</v>
       </c>
       <c r="D6">
-        <v>29.91399955749512</v>
+        <v>13.25</v>
       </c>
       <c r="E6">
-        <v>28.95000076293945</v>
+        <v>13.47000026702881</v>
       </c>
       <c r="F6">
-        <v>31.0620002746582</v>
+        <v>15.47999954223633</v>
       </c>
       <c r="G6">
-        <v>27.46199989318848</v>
+        <v>12.75</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>651255398</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1144537500</v>
@@ -1136,22 +1070,22 @@
         <v>44286</v>
       </c>
       <c r="D7">
-        <v>529.9299926757812</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="E7">
-        <v>513.469970703125</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="F7">
-        <v>563.5599975585938</v>
+        <v>10.40999984741211</v>
       </c>
       <c r="G7">
-        <v>499</v>
+        <v>10.0600004196167</v>
       </c>
       <c r="H7">
-        <v>424926346</v>
+        <v>651255398</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>875437500</v>
@@ -1252,22 +1186,22 @@
         <v>44377</v>
       </c>
       <c r="D8">
-        <v>46.47724219552952</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="E8">
-        <v>48.50979995727539</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="F8">
-        <v>48.75511095753174</v>
+        <v>10.01000022888184</v>
       </c>
       <c r="G8">
-        <v>45.85521015250949</v>
+        <v>8.760000228881836</v>
       </c>
       <c r="H8">
-        <v>3953196953</v>
+        <v>651255398</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>5649196354</v>
@@ -1368,22 +1302,22 @@
         <v>44469</v>
       </c>
       <c r="D9">
-        <v>138.916410444292</v>
+        <v>10.51000022888184</v>
       </c>
       <c r="E9">
-        <v>146.6503143310547</v>
+        <v>11.97999954223633</v>
       </c>
       <c r="F9">
-        <v>149.9494520691154</v>
+        <v>12.27999973297119</v>
       </c>
       <c r="G9">
-        <v>135.3627448332334</v>
+        <v>9.899999618530272</v>
       </c>
       <c r="H9">
-        <v>14840390000</v>
+        <v>651255398</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>6339320694</v>
@@ -1484,22 +1418,22 @@
         <v>44561</v>
       </c>
       <c r="D10">
-        <v>17.05999946594238</v>
+        <v>11.35999965667725</v>
       </c>
       <c r="E10">
-        <v>15.57999992370606</v>
+        <v>10.65999984741211</v>
       </c>
       <c r="F10">
-        <v>19.65999984741211</v>
+        <v>11.42500019073486</v>
       </c>
       <c r="G10">
-        <v>13.14000034332275</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="H10">
-        <v>250599325</v>
+        <v>651255398</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>6876106837</v>
@@ -1600,22 +1534,22 @@
         <v>44651</v>
       </c>
       <c r="D11">
-        <v>151.2200012207031</v>
+        <v>11.01000022888184</v>
       </c>
       <c r="E11">
-        <v>119.3099975585938</v>
+        <v>9.229999542236328</v>
       </c>
       <c r="F11">
-        <v>161.6100006103516</v>
+        <v>11.53999996185303</v>
       </c>
       <c r="G11">
-        <v>118.879997253418</v>
+        <v>9.170000076293944</v>
       </c>
       <c r="H11">
-        <v>168459019</v>
+        <v>651255398</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>6758035249</v>
@@ -1716,22 +1650,22 @@
         <v>44742</v>
       </c>
       <c r="D12">
-        <v>3.200000047683716</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="E12">
-        <v>3.930000066757202</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="F12">
-        <v>4.539999961853027</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="G12">
-        <v>3.109999895095825</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="H12">
-        <v>448228270</v>
+        <v>651255398</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>5650975487</v>
@@ -1844,22 +1778,22 @@
         <v>44834</v>
       </c>
       <c r="D13">
-        <v>254.5</v>
+        <v>9.140000343322754</v>
       </c>
       <c r="E13">
-        <v>227.5399932861328</v>
+        <v>9.329999923706056</v>
       </c>
       <c r="F13">
-        <v>257.5</v>
+        <v>9.520000457763672</v>
       </c>
       <c r="G13">
-        <v>198.5899963378907</v>
+        <v>8.194999694824219</v>
       </c>
       <c r="H13">
-        <v>3325150886</v>
+        <v>651255398</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>5610185135</v>
@@ -1960,22 +1894,22 @@
         <v>44926</v>
       </c>
       <c r="D14">
-        <v>26.71999931335449</v>
+        <v>8.840000152587891</v>
       </c>
       <c r="E14">
-        <v>28.72999954223633</v>
+        <v>9.25</v>
       </c>
       <c r="F14">
-        <v>29.72999954223633</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="G14">
-        <v>26.64999961853028</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="H14">
-        <v>178998669</v>
+        <v>651255398</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>5400189658</v>
@@ -2076,22 +2010,22 @@
         <v>45016</v>
       </c>
       <c r="D15">
-        <v>261.1884929516806</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E15">
-        <v>225.4617156982422</v>
+        <v>8.680000305175781</v>
       </c>
       <c r="F15">
-        <v>262.5264343168398</v>
+        <v>9.079999923706056</v>
       </c>
       <c r="G15">
-        <v>223.9783523558658</v>
+        <v>8.539999961853027</v>
       </c>
       <c r="H15">
-        <v>60498713</v>
+        <v>651255398</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>5606760922</v>
@@ -2195,22 +2129,22 @@
         <v>45107</v>
       </c>
       <c r="D16">
-        <v>18.42000007629395</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="E16">
-        <v>19.04000091552734</v>
+        <v>11.02000045776367</v>
       </c>
       <c r="F16">
-        <v>19.38999938964844</v>
+        <v>11.21000003814697</v>
       </c>
       <c r="G16">
-        <v>17.57999992370605</v>
+        <v>10.36999988555908</v>
       </c>
       <c r="H16">
-        <v>260676335</v>
+        <v>651255398</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>7043399615</v>
@@ -2311,22 +2245,22 @@
         <v>45199</v>
       </c>
       <c r="D17">
-        <v>62.6169871617784</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="E17">
-        <v>64.67326354980469</v>
+        <v>10.77000045776367</v>
       </c>
       <c r="F17">
-        <v>66.63478202323152</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="G17">
-        <v>60.75970456328059</v>
+        <v>10.56999969482422</v>
       </c>
       <c r="H17">
-        <v>212968277</v>
+        <v>651255398</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>8438912271</v>
@@ -2427,22 +2361,22 @@
         <v>45291</v>
       </c>
       <c r="D18">
-        <v>1152.400024414062</v>
+        <v>11.34000015258789</v>
       </c>
       <c r="E18">
-        <v>1198.829956054688</v>
+        <v>10.98999977111816</v>
       </c>
       <c r="F18">
-        <v>1307.140014648438</v>
+        <v>11.35000038146973</v>
       </c>
       <c r="G18">
-        <v>1113.18994140625</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="H18">
-        <v>24003656</v>
+        <v>651255398</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>7231278393</v>
@@ -2546,22 +2480,22 @@
         <v>45382</v>
       </c>
       <c r="D19">
-        <v>104.6600036621094</v>
+        <v>11.97000026702881</v>
       </c>
       <c r="E19">
-        <v>92.98000335693359</v>
+        <v>11.22000026702881</v>
       </c>
       <c r="F19">
-        <v>105.0100021362305</v>
+        <v>12.05000019073486</v>
       </c>
       <c r="G19">
-        <v>90.66999816894533</v>
+        <v>11.19499969482422</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>651255398</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>7231629357</v>
@@ -2662,22 +2596,22 @@
         <v>45473</v>
       </c>
       <c r="D20">
-        <v>53.97000122070312</v>
+        <v>11.13000011444092</v>
       </c>
       <c r="E20">
-        <v>52.63999938964844</v>
+        <v>10.26000022888184</v>
       </c>
       <c r="F20">
-        <v>65.87999725341797</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="G20">
-        <v>50.29000091552734</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="H20">
-        <v>42689006</v>
+        <v>651255398</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>6828030884</v>
@@ -2778,22 +2712,22 @@
         <v>45565</v>
       </c>
       <c r="D21">
-        <v>36.50313191135645</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="E21">
-        <v>39.63111877441406</v>
+        <v>10.40999984741211</v>
       </c>
       <c r="F21">
-        <v>41.15769383693995</v>
+        <v>11.39999961853027</v>
       </c>
       <c r="G21">
-        <v>34.26814654717644</v>
+        <v>10.38000011444092</v>
       </c>
       <c r="H21">
-        <v>171080665</v>
+        <v>651255398</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>6888574122</v>
@@ -2894,22 +2828,22 @@
         <v>45657</v>
       </c>
       <c r="D22">
-        <v>12.96000003814697</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="E22">
-        <v>14.22000026702881</v>
+        <v>11.10999965667725</v>
       </c>
       <c r="F22">
-        <v>15.34500026702881</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="G22">
-        <v>12.61999988555908</v>
+        <v>10.9350004196167</v>
       </c>
       <c r="H22">
-        <v>453568899</v>
+        <v>651255398</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>7337142378</v>
@@ -3022,22 +2956,22 @@
         <v>45747</v>
       </c>
       <c r="D23">
-        <v>187.8600006103516</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="E23">
-        <v>184.4199981689453</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="F23">
-        <v>198.3399963378907</v>
+        <v>9.350000381469728</v>
       </c>
       <c r="G23">
-        <v>161.3800048828125</v>
+        <v>8.140000343322754</v>
       </c>
       <c r="H23">
-        <v>10664912097</v>
+        <v>651255398</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>5930737947</v>
@@ -3138,22 +3072,22 @@
         <v>45838</v>
       </c>
       <c r="D24">
-        <v>105.0804770925983</v>
+        <v>9.380000114440918</v>
       </c>
       <c r="E24">
-        <v>103.1780242919922</v>
+        <v>9.670000076293944</v>
       </c>
       <c r="F24">
-        <v>109.3114367486601</v>
+        <v>10.07999992370606</v>
       </c>
       <c r="G24">
-        <v>101.4440230697358</v>
+        <v>9.164999961853027</v>
       </c>
       <c r="H24">
-        <v>199618386</v>
+        <v>651255398</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>6201756444</v>
